--- a/BaseU.xlsx
+++ b/BaseU.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="304">
   <si>
     <t>id</t>
   </si>
@@ -932,6 +932,9 @@
   </si>
   <si>
     <t>landdamage</t>
+  </si>
+  <si>
+    <t>rpcost</t>
   </si>
 </sst>
 </file>
@@ -1253,11 +1256,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:ANI3103"/>
+  <dimension ref="A1:ANJ3103"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3103" sqref="A3103"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1493,10 +1496,12 @@
     <col min="301" max="301" width="7.453125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="302" max="302" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="303" max="303" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="304" max="1049" width="8.54296875" collapsed="1"/>
+    <col min="304" max="304" width="11.81640625" customWidth="1"/>
+    <col min="305" max="305" width="3.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="306" max="1050" width="8.54296875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:304" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:305" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2407,80 +2412,83 @@
         <v>302</v>
       </c>
       <c r="KR1" t="s">
+        <v>303</v>
+      </c>
+      <c r="KS1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:304" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:305" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:304" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:305" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:304" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:305" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:304" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:305" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:304" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:305" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:304" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:305" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:304" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:305" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:304" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:305" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:304" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:305" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:304" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:305" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:304" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:305" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:304" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:305" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:304" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:305" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:304" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:305" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:304" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:305" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>

--- a/BaseU.xlsx
+++ b/BaseU.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="313">
   <si>
     <t>id</t>
   </si>
@@ -935,6 +935,33 @@
   </si>
   <si>
     <t>rpcost</t>
+  </si>
+  <si>
+    <t>rand5</t>
+  </si>
+  <si>
+    <t>nbr5</t>
+  </si>
+  <si>
+    <t>link5</t>
+  </si>
+  <si>
+    <t>mask5</t>
+  </si>
+  <si>
+    <t>rand6</t>
+  </si>
+  <si>
+    <t>nbr6</t>
+  </si>
+  <si>
+    <t>link6</t>
+  </si>
+  <si>
+    <t>mask6</t>
+  </si>
+  <si>
+    <t>buffer</t>
   </si>
 </sst>
 </file>
@@ -1256,11 +1283,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:ANJ3103"/>
+  <dimension ref="A1:ANK3103"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1496,12 +1523,12 @@
     <col min="301" max="301" width="7.453125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="302" max="302" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="303" max="303" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="304" max="304" width="11.81640625" customWidth="1"/>
-    <col min="305" max="305" width="3.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="306" max="1050" width="8.54296875" collapsed="1"/>
+    <col min="304" max="305" width="11.81640625" customWidth="1"/>
+    <col min="306" max="306" width="8.81640625" customWidth="1" collapsed="1"/>
+    <col min="307" max="1051" width="8.54296875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:305" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:314" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2415,80 +2442,107 @@
         <v>303</v>
       </c>
       <c r="KS1" t="s">
+        <v>312</v>
+      </c>
+      <c r="KT1" t="s">
+        <v>304</v>
+      </c>
+      <c r="KU1" t="s">
+        <v>305</v>
+      </c>
+      <c r="KV1" t="s">
+        <v>306</v>
+      </c>
+      <c r="KW1" t="s">
+        <v>307</v>
+      </c>
+      <c r="KX1" t="s">
+        <v>308</v>
+      </c>
+      <c r="KY1" t="s">
+        <v>309</v>
+      </c>
+      <c r="KZ1" t="s">
+        <v>310</v>
+      </c>
+      <c r="LA1" t="s">
+        <v>311</v>
+      </c>
+      <c r="LB1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:305" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:314" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:305" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:314" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:305" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:314" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:305" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:314" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:305" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:314" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:305" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:314" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:305" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:314" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:305" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:314" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:305" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:314" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:305" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:314" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:305" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:314" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:305" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:314" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:305" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:314" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:305" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:314" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:305" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:314" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
